--- a/biology/Zoologie/Chanteur_du_Kosovo/Chanteur_du_Kosovo.xlsx
+++ b/biology/Zoologie/Chanteur_du_Kosovo/Chanteur_du_Kosovo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Chanteur du Kosovo ou Këngëtar nga Kosova est une race de poule domestique kosovar[1],[2].
+Le Chanteur du Kosovo ou Këngëtar nga Kosova est une race de poule domestique kosovar,.
 </t>
         </is>
       </c>
@@ -512,15 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les chants prolongés et graves des coqs sont à l'origine de leur appellation. C'est une race « fière et active »[réf. souhaitée].
-Origine
-Cette race est issue d'anciennes volailles fermier au Kosovo.
-Standard
-Masse idéale : Coq : 2 à 3,25 kg ; Poule : 1,5 à 2 kg
-Œufs à couver : 50-60g, coquille blanche
-Diamètre des bagues : Coq : 20mm ; Poule : 18mm</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chants prolongés et graves des coqs sont à l'origine de leur appellation. C'est une race « fière et active »[réf. souhaitée].
+</t>
         </is>
       </c>
     </row>
@@ -545,10 +554,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race est issue d'anciennes volailles fermier au Kosovo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chanteur_du_Kosovo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chanteur_du_Kosovo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Masse idéale : Coq : 2 à 3,25 kg ; Poule : 1,5 à 2 kg
+Œufs à couver : 50-60g, coquille blanche
+Diamètre des bagues : Coq : 20mm ; Poule : 18mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chanteur_du_Kosovo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chanteur_du_Kosovo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Feathersite: Chanteur de Kosovo
